--- a/GPI2.xlsx
+++ b/GPI2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Labora1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labora1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Descripción proyecto" sheetId="1" r:id="rId1"/>
+    <sheet name="Descripción Proyecto" sheetId="1" r:id="rId1"/>
     <sheet name="Requisitos" sheetId="2" r:id="rId2"/>
+    <sheet name="Especificación Requisitos" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>Integrantes</t>
   </si>
@@ -120,9 +121,6 @@
     <t>Gestión de riesgos</t>
   </si>
   <si>
-    <t xml:space="preserve">Mantenimineto del programa </t>
-  </si>
-  <si>
     <t>Gestión de requisitos</t>
   </si>
   <si>
@@ -147,9 +145,6 @@
     <t>Generar facturas</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>R04</t>
   </si>
   <si>
@@ -157,6 +152,159 @@
   </si>
   <si>
     <t>Generar resumen pedido</t>
+  </si>
+  <si>
+    <t>Mantenimineto del proyecto</t>
+  </si>
+  <si>
+    <t>Seguimiento</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Usuario ve interfaz</t>
+  </si>
+  <si>
+    <t>Usuario elige cantidad de cada producto</t>
+  </si>
+  <si>
+    <t>Sistema calcula precio total pedido</t>
+  </si>
+  <si>
+    <t>Usuario confirma pedido</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Sistema genera documento de factura para el cliente cuando el pedido se ha confirmado</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Sistema genera documento con información de lo que el operario tiene que fabricar y añadir al paquete que se le envía al cliente</t>
+  </si>
+  <si>
+    <t>ClienteApp</t>
+  </si>
+  <si>
+    <t>Sistema almacena en una base de datos información sobre le pedido</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Almacenar información pedido</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Controlar el acceso a la aplicación</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Usuario ve menú</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Usuario puede registrarse</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>Usuario introduce nombre</t>
+  </si>
+  <si>
+    <t>Usuario introduce contraseña</t>
+  </si>
+  <si>
+    <t>Usuario introduce dirección por defecto</t>
+  </si>
+  <si>
+    <t>6.3.2</t>
+  </si>
+  <si>
+    <t>6.2.1</t>
+  </si>
+  <si>
+    <t>6.2.2</t>
+  </si>
+  <si>
+    <t>6.2.3</t>
+  </si>
+  <si>
+    <t>Pruebas de la aplicación</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Usuario puede iniciar sesión</t>
+  </si>
+  <si>
+    <t>Usuario puede modificar la dirección de envío</t>
+  </si>
+  <si>
+    <t>No funcional</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Usuario puede eliminar sus datos</t>
+  </si>
+  <si>
+    <t>LOPD</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Ciclo de vida del proyecto</t>
+  </si>
+  <si>
+    <t>Primera versión</t>
+  </si>
+  <si>
+    <t>Segunda Versión</t>
+  </si>
+  <si>
+    <t>Última versión</t>
+  </si>
+  <si>
+    <t>Realizar pedido</t>
+  </si>
+  <si>
+    <t>Controlar acceso</t>
+  </si>
+  <si>
+    <t>Generar documentos y almacenar datos pedidos</t>
+  </si>
+  <si>
+    <t>Especificación, desarrollo e implementación. No mantenimiento posterior a la fecha de entrega</t>
   </si>
 </sst>
 </file>
@@ -246,12 +394,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -535,241 +698,1327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B16:K16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="4" max="4" width="78" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
